--- a/biology/Zoologie/Animal_Welfare_Institute/Animal_Welfare_Institute.xlsx
+++ b/biology/Zoologie/Animal_Welfare_Institute/Animal_Welfare_Institute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Animal Welfare Institute (AWI) est un organisme de charité américain fondé en 1951 dans le but de lutter contre la maltraitance animale. Sa division législative, la Society for Animal Protective Legislation (SAPL), a pour vocation d'appuyer le passage des lois dans ce but. 
 </t>
